--- a/data/pca/factorExposure/factorExposure_2018-07-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02789664989785592</v>
+        <v>0.02350223236150597</v>
       </c>
       <c r="C2">
-        <v>0.02478510742759648</v>
+        <v>0.01834120508339122</v>
       </c>
       <c r="D2">
-        <v>0.02663681734415118</v>
+        <v>0.01794102808547079</v>
       </c>
       <c r="E2">
-        <v>0.003211795641282107</v>
+        <v>0.01587711824512315</v>
       </c>
       <c r="F2">
-        <v>-0.115041894377181</v>
+        <v>-0.004065195770584796</v>
       </c>
       <c r="G2">
-        <v>0.03877765849300651</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.0507877903758755</v>
+      </c>
+      <c r="H2">
+        <v>-0.04952637789320456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1047571016850837</v>
+        <v>0.08143437705493728</v>
       </c>
       <c r="C3">
-        <v>-0.04140937230386445</v>
+        <v>-0.01150902234004031</v>
       </c>
       <c r="D3">
-        <v>0.08513312422255612</v>
+        <v>0.02254386363642854</v>
       </c>
       <c r="E3">
-        <v>0.005876130874941252</v>
+        <v>0.0135306262443623</v>
       </c>
       <c r="F3">
-        <v>-0.3967179891685233</v>
+        <v>0.04688080141355919</v>
       </c>
       <c r="G3">
-        <v>0.1539421375327134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1781440908343827</v>
+      </c>
+      <c r="H3">
+        <v>-0.1516249260325143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05103364521615517</v>
+        <v>0.04718480479069852</v>
       </c>
       <c r="C4">
-        <v>0.02491763082523345</v>
+        <v>0.004349223363852435</v>
       </c>
       <c r="D4">
-        <v>-0.01483390784010246</v>
+        <v>0.04183060691833012</v>
       </c>
       <c r="E4">
-        <v>-0.05114178842748105</v>
+        <v>-0.02260663370007829</v>
       </c>
       <c r="F4">
-        <v>-0.0873948962602297</v>
+        <v>-0.04720722805475384</v>
       </c>
       <c r="G4">
-        <v>0.04317779354780416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04211027378021241</v>
+      </c>
+      <c r="H4">
+        <v>-0.05711206447200026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01530891435066272</v>
+        <v>0.0258324458242622</v>
       </c>
       <c r="C6">
-        <v>0.008446093020226015</v>
+        <v>0.004277501212914394</v>
       </c>
       <c r="D6">
-        <v>0.01769640909752269</v>
+        <v>0.05072146026679676</v>
       </c>
       <c r="E6">
-        <v>-0.02326007710529615</v>
+        <v>-0.008520628760522965</v>
       </c>
       <c r="F6">
-        <v>-0.01252840721216441</v>
+        <v>-0.02961411082334671</v>
       </c>
       <c r="G6">
-        <v>0.00395010736084147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.0153272578415754</v>
+      </c>
+      <c r="H6">
+        <v>-0.0608742409229359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02282359421496298</v>
+        <v>0.02179813020843118</v>
       </c>
       <c r="C7">
-        <v>0.0008404473377874695</v>
+        <v>0.003268213273237979</v>
       </c>
       <c r="D7">
-        <v>0.01587334285475717</v>
+        <v>0.02565309769788131</v>
       </c>
       <c r="E7">
-        <v>-0.02960940818632934</v>
+        <v>-0.04180503266039754</v>
       </c>
       <c r="F7">
-        <v>-0.05646121875014617</v>
+        <v>-0.001869363798537088</v>
       </c>
       <c r="G7">
-        <v>0.06227715978279024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0240164622927686</v>
+      </c>
+      <c r="H7">
+        <v>-0.03681186654717685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01961174635780961</v>
+        <v>0.005984725652870213</v>
       </c>
       <c r="C8">
-        <v>0.01546043630963091</v>
+        <v>-0.001537747438983968</v>
       </c>
       <c r="D8">
-        <v>0.009378983016092654</v>
+        <v>0.01123169238660395</v>
       </c>
       <c r="E8">
-        <v>-0.04787683919556914</v>
+        <v>-0.006916972021402778</v>
       </c>
       <c r="F8">
-        <v>-0.09715034470307815</v>
+        <v>-0.01539571960499743</v>
       </c>
       <c r="G8">
-        <v>0.05613751481114145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04626577065150738</v>
+      </c>
+      <c r="H8">
+        <v>-0.04078716361008808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03911167432965826</v>
+        <v>0.03727406468016355</v>
       </c>
       <c r="C9">
-        <v>0.0232985087389877</v>
+        <v>0.0007212862228630544</v>
       </c>
       <c r="D9">
-        <v>-0.003268903097763007</v>
+        <v>0.03288157320025709</v>
       </c>
       <c r="E9">
-        <v>-0.0478462898084663</v>
+        <v>-0.01180517143038854</v>
       </c>
       <c r="F9">
-        <v>-0.08581664973564213</v>
+        <v>-0.02404938634812107</v>
       </c>
       <c r="G9">
-        <v>0.05507229701031991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.05034666874825629</v>
+      </c>
+      <c r="H9">
+        <v>-0.05300759620715059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02573729554426613</v>
+        <v>0.09962483506808328</v>
       </c>
       <c r="C10">
-        <v>-0.04180857792039949</v>
+        <v>-0.0274833703898508</v>
       </c>
       <c r="D10">
-        <v>-0.08132438341951247</v>
+        <v>-0.1541110901608671</v>
       </c>
       <c r="E10">
-        <v>0.1048531017132709</v>
+        <v>0.01093645053887276</v>
       </c>
       <c r="F10">
-        <v>-0.04904032202091826</v>
+        <v>0.04711562734778202</v>
       </c>
       <c r="G10">
-        <v>-0.03222982189553452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02086003781616684</v>
+      </c>
+      <c r="H10">
+        <v>-0.004036474472321493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03745107859665858</v>
+        <v>0.02185395241745474</v>
       </c>
       <c r="C11">
-        <v>0.01461474473645165</v>
+        <v>-0.008169270016999413</v>
       </c>
       <c r="D11">
-        <v>0.01687475150236972</v>
+        <v>0.03830947688263293</v>
       </c>
       <c r="E11">
-        <v>-0.03142821384271347</v>
+        <v>0.0006170131480621832</v>
       </c>
       <c r="F11">
-        <v>-0.04420349549117808</v>
+        <v>-0.009468412945729438</v>
       </c>
       <c r="G11">
-        <v>0.02747631563556579</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02667309748702556</v>
+      </c>
+      <c r="H11">
+        <v>-0.04380117955591551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04414632913860996</v>
+        <v>0.0304354765713456</v>
       </c>
       <c r="C12">
-        <v>0.01436173320204007</v>
+        <v>-0.006399129578977147</v>
       </c>
       <c r="D12">
-        <v>0.01035226043378113</v>
+        <v>0.03967571632321739</v>
       </c>
       <c r="E12">
-        <v>-0.03857637254234338</v>
+        <v>-0.00917751728392281</v>
       </c>
       <c r="F12">
-        <v>-0.03178914774423162</v>
+        <v>-0.01619339252405633</v>
       </c>
       <c r="G12">
-        <v>0.01865146388852529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01198142625442971</v>
+      </c>
+      <c r="H12">
+        <v>-0.02368871792824116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01721146215447796</v>
+        <v>0.02556322461831707</v>
       </c>
       <c r="C13">
-        <v>0.02025457970316257</v>
+        <v>0.01474138597935822</v>
       </c>
       <c r="D13">
-        <v>0.01451399421104865</v>
+        <v>-0.004333913337376444</v>
       </c>
       <c r="E13">
-        <v>0.002948673486466899</v>
+        <v>0.01311955722682074</v>
       </c>
       <c r="F13">
-        <v>-0.07966333792126791</v>
+        <v>-0.006805863803864202</v>
       </c>
       <c r="G13">
-        <v>0.03618979954891822</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05546164650754608</v>
+      </c>
+      <c r="H13">
+        <v>-0.05540793838841672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01359360114821187</v>
+        <v>0.01653026069334458</v>
       </c>
       <c r="C14">
-        <v>0.009611194057446575</v>
+        <v>0.001025431287346976</v>
       </c>
       <c r="D14">
-        <v>-0.00211154670160601</v>
+        <v>0.003645204466793739</v>
       </c>
       <c r="E14">
-        <v>-0.04084895180312388</v>
+        <v>-0.01306140169901346</v>
       </c>
       <c r="F14">
-        <v>-0.04957324663473502</v>
+        <v>-0.01124685589316358</v>
       </c>
       <c r="G14">
-        <v>0.06962009939733274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04307669028807037</v>
+      </c>
+      <c r="H14">
+        <v>-0.0005031077693243982</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02821380754020839</v>
+        <v>0.02273859590196921</v>
       </c>
       <c r="C16">
-        <v>0.01839097378821894</v>
+        <v>-0.008608768353824656</v>
       </c>
       <c r="D16">
-        <v>0.01765723516800984</v>
+        <v>0.03491752968997535</v>
       </c>
       <c r="E16">
-        <v>-0.02464092156342249</v>
+        <v>-0.003053224411305541</v>
       </c>
       <c r="F16">
-        <v>-0.05082882164364038</v>
+        <v>-0.01582969594751809</v>
       </c>
       <c r="G16">
-        <v>0.0303529172954307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02459424842139108</v>
+      </c>
+      <c r="H16">
+        <v>-0.03707716979241099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04678304118171508</v>
+        <v>0.03392110428467385</v>
       </c>
       <c r="C19">
-        <v>0.01564065710478948</v>
+        <v>0.0007546691869432061</v>
       </c>
       <c r="D19">
-        <v>0.02059728158230272</v>
+        <v>0.0196858633827156</v>
       </c>
       <c r="E19">
-        <v>-0.04138964300603735</v>
+        <v>-0.004369226479794664</v>
       </c>
       <c r="F19">
-        <v>-0.09471878822951266</v>
+        <v>-0.01547712779300696</v>
       </c>
       <c r="G19">
-        <v>0.04049802983052631</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.05628651714683156</v>
+      </c>
+      <c r="H19">
+        <v>-0.06894674321039174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>4.407264010490014e-05</v>
+        <v>0.008826853695409967</v>
       </c>
       <c r="C20">
-        <v>0.01301813703948252</v>
+        <v>0.006957954054466494</v>
       </c>
       <c r="D20">
-        <v>0.0004078795633275141</v>
+        <v>0.007348788336961493</v>
       </c>
       <c r="E20">
-        <v>-0.03497989135777834</v>
+        <v>-0.003552244787172518</v>
       </c>
       <c r="F20">
-        <v>-0.07052263772115615</v>
+        <v>-0.009569201623641346</v>
       </c>
       <c r="G20">
-        <v>0.0746206325787144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.0490789669307445</v>
+      </c>
+      <c r="H20">
+        <v>-0.01112329876457198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0005463546675017019</v>
+        <v>0.01651095162294022</v>
       </c>
       <c r="C21">
-        <v>-0.008227547244126752</v>
+        <v>0.007865872547986302</v>
       </c>
       <c r="D21">
-        <v>0.009848866673412388</v>
+        <v>0.008670590921254549</v>
       </c>
       <c r="E21">
-        <v>-0.02992838255637122</v>
+        <v>-0.01607521402086127</v>
       </c>
       <c r="F21">
-        <v>-0.05474699502888013</v>
+        <v>-0.002558837892064073</v>
       </c>
       <c r="G21">
-        <v>0.02652495553862068</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05042157853518606</v>
+      </c>
+      <c r="H21">
+        <v>-0.03130113122846901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03242206522037609</v>
+        <v>0.02036913908548156</v>
       </c>
       <c r="C24">
-        <v>0.01959359745532014</v>
+        <v>-0.002919393234232575</v>
       </c>
       <c r="D24">
-        <v>0.009327097385841246</v>
+        <v>0.03428688790629163</v>
       </c>
       <c r="E24">
-        <v>-0.008638114458470847</v>
+        <v>-0.0003661802287146194</v>
       </c>
       <c r="F24">
-        <v>-0.04332983341554564</v>
+        <v>-0.009999471121422595</v>
       </c>
       <c r="G24">
-        <v>0.02438067284044141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02090330291945512</v>
+      </c>
+      <c r="H24">
+        <v>-0.04017210654305212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03154679263202085</v>
+        <v>0.03003777845063967</v>
       </c>
       <c r="C25">
-        <v>0.010708818692237</v>
+        <v>-0.0007596535728969813</v>
       </c>
       <c r="D25">
-        <v>0.0174249421120806</v>
+        <v>0.03349879550433357</v>
       </c>
       <c r="E25">
-        <v>-0.03655907953044835</v>
+        <v>-0.004541385289343611</v>
       </c>
       <c r="F25">
-        <v>-0.04330516454309592</v>
+        <v>-0.01536980534297002</v>
       </c>
       <c r="G25">
-        <v>0.009920797569477577</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02481049149631864</v>
+      </c>
+      <c r="H25">
+        <v>-0.04340932151850768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02105782635084517</v>
+        <v>0.01944467113725711</v>
       </c>
       <c r="C26">
-        <v>0.003422340373583931</v>
+        <v>0.01752739896000931</v>
       </c>
       <c r="D26">
-        <v>0.03115106617837042</v>
+        <v>0.003675675706157444</v>
       </c>
       <c r="E26">
-        <v>-0.02009864885589109</v>
+        <v>0.001291702918183449</v>
       </c>
       <c r="F26">
-        <v>-0.062882188942676</v>
+        <v>0.0005365293612809485</v>
       </c>
       <c r="G26">
-        <v>0.03676483994758127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03198079068620688</v>
+      </c>
+      <c r="H26">
+        <v>-0.01861174969209429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.06611379789473959</v>
+        <v>0.02632449563511836</v>
       </c>
       <c r="C27">
-        <v>0.03032557932810991</v>
+        <v>-0.009834998985356936</v>
       </c>
       <c r="D27">
-        <v>-0.02846312554628786</v>
+        <v>0.01475864762885821</v>
       </c>
       <c r="E27">
-        <v>-0.03603800337305784</v>
+        <v>-0.008127240152448804</v>
       </c>
       <c r="F27">
-        <v>-0.05457376173584069</v>
+        <v>-0.0176993060118018</v>
       </c>
       <c r="G27">
-        <v>0.03863602538724251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01924992574340536</v>
+      </c>
+      <c r="H27">
+        <v>-0.005440416444198809</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04165235834466025</v>
+        <v>0.1488760092596229</v>
       </c>
       <c r="C28">
-        <v>-0.04714662046970153</v>
+        <v>-0.02771075872362487</v>
       </c>
       <c r="D28">
-        <v>-0.1145264265539023</v>
+        <v>-0.2240177193152355</v>
       </c>
       <c r="E28">
-        <v>0.1477358617249931</v>
+        <v>0.00882431195653564</v>
       </c>
       <c r="F28">
-        <v>-0.04896042019211206</v>
+        <v>0.05377187974989957</v>
       </c>
       <c r="G28">
-        <v>-0.02270562185404152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.006972366048300308</v>
+      </c>
+      <c r="H28">
+        <v>0.01386073367710849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02175983750710023</v>
+        <v>0.02186688623610934</v>
       </c>
       <c r="C29">
-        <v>0.01120755700960045</v>
+        <v>-0.001211267426681825</v>
       </c>
       <c r="D29">
-        <v>-0.005090158028653043</v>
+        <v>0.004901476081184846</v>
       </c>
       <c r="E29">
-        <v>-0.05456935354921758</v>
+        <v>-0.01316012636970805</v>
       </c>
       <c r="F29">
-        <v>-0.04130647335576656</v>
+        <v>-0.01450620954472638</v>
       </c>
       <c r="G29">
-        <v>0.0597808312490212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.04090347471781788</v>
+      </c>
+      <c r="H29">
+        <v>0.003075599194424082</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09596938254276058</v>
+        <v>0.05250291168997643</v>
       </c>
       <c r="C30">
-        <v>0.06075913310495435</v>
+        <v>0.004861916964635065</v>
       </c>
       <c r="D30">
-        <v>0.01610113100835817</v>
+        <v>0.07000466194929524</v>
       </c>
       <c r="E30">
-        <v>-0.06893258344939203</v>
+        <v>0.02858078135824383</v>
       </c>
       <c r="F30">
-        <v>-0.08589254480137878</v>
+        <v>-0.05168133403313734</v>
       </c>
       <c r="G30">
-        <v>0.05878354724583571</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05702911167238871</v>
+      </c>
+      <c r="H30">
+        <v>-0.06345090968455119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06274323703174713</v>
+        <v>0.05493044033190851</v>
       </c>
       <c r="C31">
-        <v>0.02432117713493334</v>
+        <v>-0.014128178435983</v>
       </c>
       <c r="D31">
-        <v>0.02873653021914459</v>
+        <v>0.02642981507571291</v>
       </c>
       <c r="E31">
-        <v>-0.005609336502930828</v>
+        <v>0.004572099362061033</v>
       </c>
       <c r="F31">
-        <v>-0.04145606663369132</v>
+        <v>-0.01251781481905573</v>
       </c>
       <c r="G31">
-        <v>0.06294286995388251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01855677332608262</v>
+      </c>
+      <c r="H31">
+        <v>-0.00975968413426714</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02150770190069643</v>
+        <v>0.0113397106527328</v>
       </c>
       <c r="C32">
-        <v>0.01826156294373803</v>
+        <v>-0.0134482484670933</v>
       </c>
       <c r="D32">
-        <v>0.01019356384507655</v>
+        <v>0.00109626274801303</v>
       </c>
       <c r="E32">
-        <v>-0.08196063278034073</v>
+        <v>-0.03094796059418747</v>
       </c>
       <c r="F32">
-        <v>-0.06111934367666476</v>
+        <v>-0.03210984630572407</v>
       </c>
       <c r="G32">
-        <v>0.04634597473451106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.03380893197992556</v>
+      </c>
+      <c r="H32">
+        <v>-0.0582099931585089</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0516903079419633</v>
+        <v>0.03935155959743425</v>
       </c>
       <c r="C33">
-        <v>0.01069222586949558</v>
+        <v>-0.0008855815946468097</v>
       </c>
       <c r="D33">
-        <v>0.04819880724064769</v>
+        <v>0.03269674848235646</v>
       </c>
       <c r="E33">
-        <v>-0.04113653257375371</v>
+        <v>0.02339178077001146</v>
       </c>
       <c r="F33">
-        <v>-0.0864880040960509</v>
+        <v>-0.001580314208376411</v>
       </c>
       <c r="G33">
-        <v>0.05945186243684148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04742936530415424</v>
+      </c>
+      <c r="H33">
+        <v>-0.04032138990564377</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0350874246682134</v>
+        <v>0.02755574268747483</v>
       </c>
       <c r="C34">
-        <v>0.02127621778517168</v>
+        <v>-0.01706835962785724</v>
       </c>
       <c r="D34">
-        <v>0.01261253526575372</v>
+        <v>0.03499691209206261</v>
       </c>
       <c r="E34">
-        <v>-0.03349983200179511</v>
+        <v>-0.009589715852806902</v>
       </c>
       <c r="F34">
-        <v>-0.05834876750778777</v>
+        <v>-0.01731484519229007</v>
       </c>
       <c r="G34">
-        <v>0.01650576505797285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02318195459408126</v>
+      </c>
+      <c r="H34">
+        <v>-0.03729167235583569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01616049328801507</v>
+        <v>0.02113881573762821</v>
       </c>
       <c r="C36">
-        <v>0.005497929192925625</v>
+        <v>0.004009260519449669</v>
       </c>
       <c r="D36">
-        <v>-0.001120405336989665</v>
+        <v>3.538588498945864e-05</v>
       </c>
       <c r="E36">
-        <v>-0.03097475584019355</v>
+        <v>-0.006505783618873204</v>
       </c>
       <c r="F36">
-        <v>-0.031140222161947</v>
+        <v>-0.003733953063518392</v>
       </c>
       <c r="G36">
-        <v>0.03960485048100821</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01927057335995469</v>
+      </c>
+      <c r="H36">
+        <v>-0.006599528377951389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0008340890405050325</v>
+        <v>0.02363996160354281</v>
       </c>
       <c r="C38">
-        <v>-0.01336657928150565</v>
+        <v>-0.01600841183337406</v>
       </c>
       <c r="D38">
-        <v>0.012883058172706</v>
+        <v>0.004133574695222192</v>
       </c>
       <c r="E38">
-        <v>0.01692178242169059</v>
+        <v>0.001216653195726594</v>
       </c>
       <c r="F38">
-        <v>-0.04786336207463708</v>
+        <v>-0.005101450039894568</v>
       </c>
       <c r="G38">
-        <v>-0.0008503943493608982</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01962852125158513</v>
+      </c>
+      <c r="H38">
+        <v>-0.03989808760444163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04398518279124594</v>
+        <v>0.01951801858177401</v>
       </c>
       <c r="C39">
-        <v>0.03717791241107421</v>
+        <v>-0.001028296158138646</v>
       </c>
       <c r="D39">
-        <v>0.02591082878924896</v>
+        <v>0.075258608406381</v>
       </c>
       <c r="E39">
-        <v>-0.03612371424082243</v>
+        <v>0.001296767869349754</v>
       </c>
       <c r="F39">
-        <v>-0.06525193037035926</v>
+        <v>-0.0213755729726659</v>
       </c>
       <c r="G39">
-        <v>0.02776941860084621</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04364768879606511</v>
+      </c>
+      <c r="H39">
+        <v>-0.07014500589444342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03903900016271918</v>
+        <v>0.0323377226014358</v>
       </c>
       <c r="C40">
-        <v>0.06176232466146551</v>
+        <v>-0.0007270469377712656</v>
       </c>
       <c r="D40">
-        <v>0.03735867359237829</v>
+        <v>0.01792687285544425</v>
       </c>
       <c r="E40">
-        <v>0.01062958070908696</v>
+        <v>0.02449044929196548</v>
       </c>
       <c r="F40">
-        <v>-0.07734734548767704</v>
+        <v>-0.02651646740539977</v>
       </c>
       <c r="G40">
-        <v>0.052445473773136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02672438523614041</v>
+      </c>
+      <c r="H40">
+        <v>-0.06436677947251755</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0001082503423477065</v>
+        <v>0.0115189675201909</v>
       </c>
       <c r="C41">
-        <v>-0.001717849337719013</v>
+        <v>0.0004214161419938543</v>
       </c>
       <c r="D41">
-        <v>0.006667111263062825</v>
+        <v>-0.01225748117026869</v>
       </c>
       <c r="E41">
-        <v>-0.009772386699878736</v>
+        <v>0.001851174763064632</v>
       </c>
       <c r="F41">
-        <v>-0.0008143582023417008</v>
+        <v>0.001808921762133952</v>
       </c>
       <c r="G41">
-        <v>0.04671868332517881</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.002611163586120315</v>
+      </c>
+      <c r="H41">
+        <v>0.006574817682783214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3484651891984146</v>
+        <v>0.1949279293162939</v>
       </c>
       <c r="C42">
-        <v>-0.6796673974793579</v>
+        <v>0.07897885273191149</v>
       </c>
       <c r="D42">
-        <v>0.5338405749243434</v>
+        <v>0.3666913202059036</v>
       </c>
       <c r="E42">
-        <v>0.168893553583957</v>
+        <v>0.2271233927587321</v>
       </c>
       <c r="F42">
-        <v>0.2487708379122952</v>
+        <v>0.8404196953051798</v>
       </c>
       <c r="G42">
-        <v>0.06042698136228603</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.2062735886485788</v>
+      </c>
+      <c r="H42">
+        <v>0.04793926882234949</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.007771311231836122</v>
+        <v>0.01144366473302385</v>
       </c>
       <c r="C43">
-        <v>-0.007474461702204903</v>
+        <v>0.001782923111561854</v>
       </c>
       <c r="D43">
-        <v>0.01604873510207182</v>
+        <v>-0.01360157907035196</v>
       </c>
       <c r="E43">
-        <v>-0.01129479331947884</v>
+        <v>0.006189989770151203</v>
       </c>
       <c r="F43">
-        <v>-0.01629598726847178</v>
+        <v>0.009254416964879929</v>
       </c>
       <c r="G43">
-        <v>0.04369992546730783</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.004628577175417079</v>
+      </c>
+      <c r="H43">
+        <v>-0.000262535433855631</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01746236655689165</v>
+        <v>0.01367976580292807</v>
       </c>
       <c r="C44">
-        <v>-0.00473521807492758</v>
+        <v>-0.001008223480769533</v>
       </c>
       <c r="D44">
-        <v>0.02138023175911749</v>
+        <v>0.02389468393038107</v>
       </c>
       <c r="E44">
-        <v>-0.02504146700867688</v>
+        <v>-0.005119979362537064</v>
       </c>
       <c r="F44">
-        <v>-0.1107779315347983</v>
+        <v>0.006626250467193775</v>
       </c>
       <c r="G44">
-        <v>0.07572394484905159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03900789228876769</v>
+      </c>
+      <c r="H44">
+        <v>-0.05595180139114771</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01913216813049334</v>
+        <v>0.01809004335071889</v>
       </c>
       <c r="C46">
-        <v>0.01054354858275499</v>
+        <v>0.00398887403152642</v>
       </c>
       <c r="D46">
-        <v>0.02554479675089283</v>
+        <v>0.01383593559432483</v>
       </c>
       <c r="E46">
-        <v>-0.04917706250671462</v>
+        <v>-0.0007396459234971677</v>
       </c>
       <c r="F46">
-        <v>-0.05503699420010123</v>
+        <v>-0.01358210776116639</v>
       </c>
       <c r="G46">
-        <v>0.06336462239861868</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04807923019924227</v>
+      </c>
+      <c r="H46">
+        <v>-0.01101263951710082</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09773592054769201</v>
+        <v>0.07604561575808089</v>
       </c>
       <c r="C47">
-        <v>0.03042449772683964</v>
+        <v>-0.0293851361228541</v>
       </c>
       <c r="D47">
-        <v>0.01010013453886062</v>
+        <v>0.043736360139084</v>
       </c>
       <c r="E47">
-        <v>-0.02224162689847033</v>
+        <v>-0.0004791908289942465</v>
       </c>
       <c r="F47">
-        <v>-0.01870200549777132</v>
+        <v>-0.02346730267203051</v>
       </c>
       <c r="G47">
-        <v>0.0806922159139984</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.007051601493243713</v>
+      </c>
+      <c r="H47">
+        <v>0.02241248128505487</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01862227435802442</v>
+        <v>0.02291568077360695</v>
       </c>
       <c r="C48">
-        <v>0.007107847262507703</v>
+        <v>-0.006633258272739904</v>
       </c>
       <c r="D48">
-        <v>0.0145143686629695</v>
+        <v>0.006923030402713528</v>
       </c>
       <c r="E48">
-        <v>-0.02908338792266511</v>
+        <v>-0.0016101746394205</v>
       </c>
       <c r="F48">
-        <v>-0.04947355028520307</v>
+        <v>-0.008159520514354063</v>
       </c>
       <c r="G48">
-        <v>0.02471678742366975</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02561561736261942</v>
+      </c>
+      <c r="H48">
+        <v>-0.01720766008140873</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09161230149489837</v>
+        <v>0.07408414181574256</v>
       </c>
       <c r="C50">
-        <v>0.02697919330112824</v>
+        <v>-0.02651177903946454</v>
       </c>
       <c r="D50">
-        <v>0.0219019627549639</v>
+        <v>0.04436651980213584</v>
       </c>
       <c r="E50">
-        <v>-0.03427674090399396</v>
+        <v>-0.0192199991033327</v>
       </c>
       <c r="F50">
-        <v>-0.05180190160625438</v>
+        <v>-0.01793058667918142</v>
       </c>
       <c r="G50">
-        <v>0.0421121725957499</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01649579161542733</v>
+      </c>
+      <c r="H50">
+        <v>0.001607407404021369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01728392656508775</v>
+        <v>0.01908761128818939</v>
       </c>
       <c r="C51">
-        <v>-0.01013559122486716</v>
+        <v>0.001463876302287552</v>
       </c>
       <c r="D51">
-        <v>0.01416241828611608</v>
+        <v>-0.007706372803962855</v>
       </c>
       <c r="E51">
-        <v>0.00234569744136191</v>
+        <v>0.0007070127824917094</v>
       </c>
       <c r="F51">
-        <v>-0.1152772297008354</v>
+        <v>0.01418780246501839</v>
       </c>
       <c r="G51">
-        <v>0.04570013888709087</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04747294712998787</v>
+      </c>
+      <c r="H51">
+        <v>-0.04945678658403731</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1066197665350189</v>
+        <v>0.09444263344890239</v>
       </c>
       <c r="C53">
-        <v>0.04785739406948833</v>
+        <v>-0.03645214840932101</v>
       </c>
       <c r="D53">
-        <v>0.0152296941250523</v>
+        <v>0.07904349600691983</v>
       </c>
       <c r="E53">
-        <v>-0.0398422617617775</v>
+        <v>-0.0080416650722691</v>
       </c>
       <c r="F53">
-        <v>0.04834917194097686</v>
+        <v>-0.05134531189031873</v>
       </c>
       <c r="G53">
-        <v>0.01942641510265423</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04046378215797284</v>
+      </c>
+      <c r="H53">
+        <v>0.04367834656193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02088267411925323</v>
+        <v>0.02557588832329049</v>
       </c>
       <c r="C54">
-        <v>0.01215165688052233</v>
+        <v>-0.01091975512596471</v>
       </c>
       <c r="D54">
-        <v>-0.006958151844887774</v>
+        <v>-0.01258380683675584</v>
       </c>
       <c r="E54">
-        <v>-0.03667619548122287</v>
+        <v>-0.00674024173987381</v>
       </c>
       <c r="F54">
-        <v>-0.04867185611141898</v>
+        <v>-0.004440932145962643</v>
       </c>
       <c r="G54">
-        <v>0.06300557506621579</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03991604415333329</v>
+      </c>
+      <c r="H54">
+        <v>0.004064943811454762</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1042559810971073</v>
+        <v>0.07783389522020184</v>
       </c>
       <c r="C55">
-        <v>0.02776535907694612</v>
+        <v>-0.03133415834708452</v>
       </c>
       <c r="D55">
-        <v>-0.005040417715349843</v>
+        <v>0.07620942033300245</v>
       </c>
       <c r="E55">
-        <v>-0.06262973274547415</v>
+        <v>-0.01501035570051906</v>
       </c>
       <c r="F55">
-        <v>0.03855589382446997</v>
+        <v>-0.0410402842419979</v>
       </c>
       <c r="G55">
-        <v>0.07615314888174207</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01784147338955677</v>
+      </c>
+      <c r="H55">
+        <v>0.05299131734053739</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1473476754528167</v>
+        <v>0.1290411464909633</v>
       </c>
       <c r="C56">
-        <v>0.09024535471193762</v>
+        <v>-0.05581003534376108</v>
       </c>
       <c r="D56">
-        <v>-0.02035701672485238</v>
+        <v>0.1000974780735589</v>
       </c>
       <c r="E56">
-        <v>-0.05490921764110613</v>
+        <v>-0.01247182059744725</v>
       </c>
       <c r="F56">
-        <v>0.1041281144213892</v>
+        <v>-0.08360036226731307</v>
       </c>
       <c r="G56">
-        <v>-0.03288534311576694</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07381571370437733</v>
+      </c>
+      <c r="H56">
+        <v>0.05006163768889117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04779969250275549</v>
+        <v>0.04032351563123216</v>
       </c>
       <c r="C57">
-        <v>8.745257049999904e-05</v>
+        <v>0.01011787243181786</v>
       </c>
       <c r="D57">
-        <v>0.01491264706710121</v>
+        <v>0.02632402562290754</v>
       </c>
       <c r="E57">
-        <v>0.01193252834297642</v>
+        <v>0.004429917430158127</v>
       </c>
       <c r="F57">
-        <v>-0.08214358396601987</v>
+        <v>-0.01242547194353397</v>
       </c>
       <c r="G57">
-        <v>0.06665121988830691</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05583170457330888</v>
+      </c>
+      <c r="H57">
+        <v>-0.04055780545563074</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2067428484392198</v>
+        <v>0.1484714194021639</v>
       </c>
       <c r="C58">
-        <v>0.05951816227123743</v>
+        <v>-0.04126801035258643</v>
       </c>
       <c r="D58">
-        <v>0.1370353204455058</v>
+        <v>0.1492095391191826</v>
       </c>
       <c r="E58">
-        <v>-0.1313584567101529</v>
+        <v>0.1703592153307277</v>
       </c>
       <c r="F58">
-        <v>-0.3298291414685548</v>
+        <v>0.04498792083503982</v>
       </c>
       <c r="G58">
-        <v>0.1482627731758026</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8290426989179229</v>
+      </c>
+      <c r="H58">
+        <v>0.368897264379142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.04581232204294597</v>
+        <v>0.1548370625609614</v>
       </c>
       <c r="C59">
-        <v>-0.001531829550529733</v>
+        <v>-0.03545569518405865</v>
       </c>
       <c r="D59">
-        <v>-0.09851551832467617</v>
+        <v>-0.2244913350555074</v>
       </c>
       <c r="E59">
-        <v>0.138099876582302</v>
+        <v>0.02734711806363328</v>
       </c>
       <c r="F59">
-        <v>-0.06794820541484188</v>
+        <v>0.03200820126804474</v>
       </c>
       <c r="G59">
-        <v>-0.03281413577685277</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.005180767759105102</v>
+      </c>
+      <c r="H59">
+        <v>-0.01620633412047229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1659562474019697</v>
+        <v>0.1757037544105237</v>
       </c>
       <c r="C60">
-        <v>0.03731654032424031</v>
+        <v>-0.03525702563811663</v>
       </c>
       <c r="D60">
-        <v>0.06415190183576504</v>
+        <v>0.01847336798265203</v>
       </c>
       <c r="E60">
-        <v>0.04555369643505421</v>
+        <v>0.04675640728132987</v>
       </c>
       <c r="F60">
-        <v>-0.176986957396328</v>
+        <v>-0.03550474500581219</v>
       </c>
       <c r="G60">
-        <v>-0.3006673366503902</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.04446124151216371</v>
+      </c>
+      <c r="H60">
+        <v>-0.3958190133933582</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02342054792236205</v>
+        <v>0.02124417977908287</v>
       </c>
       <c r="C61">
-        <v>0.006101352808512524</v>
+        <v>-0.006002187391911666</v>
       </c>
       <c r="D61">
-        <v>0.01438213774392507</v>
+        <v>0.04149429132273864</v>
       </c>
       <c r="E61">
-        <v>-0.02076242587241587</v>
+        <v>-0.005249147090287891</v>
       </c>
       <c r="F61">
-        <v>-0.03652565720089457</v>
+        <v>-0.01669931041562462</v>
       </c>
       <c r="G61">
-        <v>0.02261899093928542</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.0266389674593117</v>
+      </c>
+      <c r="H61">
+        <v>-0.04944095263839826</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01687885301219895</v>
+        <v>0.01237978665082798</v>
       </c>
       <c r="C63">
-        <v>0.01250353774046573</v>
+        <v>0.002448779810443497</v>
       </c>
       <c r="D63">
-        <v>0.01570195458915782</v>
+        <v>0.01497494925048115</v>
       </c>
       <c r="E63">
-        <v>-0.04414204693359001</v>
+        <v>-0.005386069520736588</v>
       </c>
       <c r="F63">
-        <v>-0.01405027594226576</v>
+        <v>-0.01518288585418617</v>
       </c>
       <c r="G63">
-        <v>0.04134706845530878</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01656504638697132</v>
+      </c>
+      <c r="H63">
+        <v>-0.002643535265072548</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03605428317623013</v>
+        <v>0.0401348488384367</v>
       </c>
       <c r="C64">
-        <v>0.001232491165929428</v>
+        <v>-0.009252874384175068</v>
       </c>
       <c r="D64">
-        <v>-0.0113388895189126</v>
+        <v>0.03869690135556157</v>
       </c>
       <c r="E64">
-        <v>-0.05571792098903426</v>
+        <v>-0.01147503905489152</v>
       </c>
       <c r="F64">
-        <v>-0.01798188550429557</v>
+        <v>-0.004540843643223946</v>
       </c>
       <c r="G64">
-        <v>0.0602122295670636</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.007733230897129234</v>
+      </c>
+      <c r="H64">
+        <v>-0.0366813327620648</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01648259129435298</v>
+        <v>0.02868795339192296</v>
       </c>
       <c r="C65">
-        <v>0.009959825459469966</v>
+        <v>0.004983018865114451</v>
       </c>
       <c r="D65">
-        <v>0.01901377008622654</v>
+        <v>0.05956546547034516</v>
       </c>
       <c r="E65">
-        <v>-0.02348739911584291</v>
+        <v>-0.01065516266964932</v>
       </c>
       <c r="F65">
-        <v>-0.007433709425146014</v>
+        <v>-0.03339899345355014</v>
       </c>
       <c r="G65">
-        <v>-0.000414848131911552</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.004355173799708344</v>
+      </c>
+      <c r="H65">
+        <v>-0.06049763825060504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04793769478566341</v>
+        <v>0.02604270368226309</v>
       </c>
       <c r="C66">
-        <v>0.03774517034223104</v>
+        <v>-0.005707028109502735</v>
       </c>
       <c r="D66">
-        <v>0.02712424213860562</v>
+        <v>0.08741025362139625</v>
       </c>
       <c r="E66">
-        <v>-0.03322014548936283</v>
+        <v>0.002361786357408853</v>
       </c>
       <c r="F66">
-        <v>-0.06128909541742675</v>
+        <v>-0.03825416186275161</v>
       </c>
       <c r="G66">
-        <v>0.01870106705321024</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03740438213014814</v>
+      </c>
+      <c r="H66">
+        <v>-0.07326524048598741</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01413073249690517</v>
+        <v>0.04428571828755534</v>
       </c>
       <c r="C67">
-        <v>-0.00935267315262191</v>
+        <v>-0.01921560085280002</v>
       </c>
       <c r="D67">
-        <v>0.008357332870694827</v>
+        <v>-0.002072323601342806</v>
       </c>
       <c r="E67">
-        <v>0.03983738200892314</v>
+        <v>0.004641698100229017</v>
       </c>
       <c r="F67">
-        <v>-0.03405331554291708</v>
+        <v>-0.01068983681558909</v>
       </c>
       <c r="G67">
-        <v>-0.01189893604948679</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.002380728333771838</v>
+      </c>
+      <c r="H67">
+        <v>-0.03973030766566815</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06208218823638167</v>
+        <v>0.156633136998749</v>
       </c>
       <c r="C68">
-        <v>-0.01698005846646734</v>
+        <v>-0.01577738921460452</v>
       </c>
       <c r="D68">
-        <v>-0.1353113661501678</v>
+        <v>-0.2209076353489472</v>
       </c>
       <c r="E68">
-        <v>0.1412664476845019</v>
+        <v>0.02088065194416451</v>
       </c>
       <c r="F68">
-        <v>-0.05329317582558583</v>
+        <v>0.0508361372049372</v>
       </c>
       <c r="G68">
-        <v>-0.0733001764079213</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.0170606486937243</v>
+      </c>
+      <c r="H68">
+        <v>0.03623043166006008</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07159613250005759</v>
+        <v>0.05894192719374163</v>
       </c>
       <c r="C69">
-        <v>0.03415383324405508</v>
+        <v>-0.02791660597009135</v>
       </c>
       <c r="D69">
-        <v>0.007841895208898875</v>
+        <v>0.03891028891531276</v>
       </c>
       <c r="E69">
-        <v>-0.002019534644204575</v>
+        <v>0.001475888195637131</v>
       </c>
       <c r="F69">
-        <v>-0.01627662743775018</v>
+        <v>-0.03100070929224366</v>
       </c>
       <c r="G69">
-        <v>0.08491379433469952</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01358066717024237</v>
+      </c>
+      <c r="H69">
+        <v>-0.001472560525168817</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07087304381506164</v>
+        <v>0.1468308076935141</v>
       </c>
       <c r="C71">
-        <v>-0.03479055323487575</v>
+        <v>-0.02305034840826229</v>
       </c>
       <c r="D71">
-        <v>-0.1181550849155516</v>
+        <v>-0.1987797965228302</v>
       </c>
       <c r="E71">
-        <v>0.1984535533793117</v>
+        <v>0.02667098195940035</v>
       </c>
       <c r="F71">
-        <v>-0.06890424607759704</v>
+        <v>0.0611165016752051</v>
       </c>
       <c r="G71">
-        <v>-0.03494465589329297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01609214818489286</v>
+      </c>
+      <c r="H71">
+        <v>0.02806450732187144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1172437645058028</v>
+        <v>0.0834407816615293</v>
       </c>
       <c r="C72">
-        <v>0.08736924728399749</v>
+        <v>-0.03901680678518721</v>
       </c>
       <c r="D72">
-        <v>-0.0002616412891502385</v>
+        <v>0.07533595947895239</v>
       </c>
       <c r="E72">
-        <v>-0.02555141349148748</v>
+        <v>0.007999031376934402</v>
       </c>
       <c r="F72">
-        <v>-0.1161299206239177</v>
+        <v>-0.07996039045457037</v>
       </c>
       <c r="G72">
-        <v>-0.05429362459383654</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.05958992141974721</v>
+      </c>
+      <c r="H72">
+        <v>-0.1669679940154876</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2466874594328426</v>
+        <v>0.2385484540485953</v>
       </c>
       <c r="C73">
-        <v>0.04087182994422841</v>
+        <v>-0.0446189646216496</v>
       </c>
       <c r="D73">
-        <v>0.06664415807994296</v>
+        <v>0.06097248170315639</v>
       </c>
       <c r="E73">
-        <v>0.1316866764031705</v>
+        <v>0.07818090777222649</v>
       </c>
       <c r="F73">
-        <v>-0.3013653008656205</v>
+        <v>-0.03151998104075672</v>
       </c>
       <c r="G73">
-        <v>-0.413514067102824</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.06293002383223048</v>
+      </c>
+      <c r="H73">
+        <v>-0.5144253710634052</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1435080786969215</v>
+        <v>0.1197114053445081</v>
       </c>
       <c r="C74">
-        <v>0.04361662774859525</v>
+        <v>-0.05148603877974632</v>
       </c>
       <c r="D74">
-        <v>-0.01760694595771776</v>
+        <v>0.1006266797023645</v>
       </c>
       <c r="E74">
-        <v>-0.03359055998335327</v>
+        <v>-0.009866843715854109</v>
       </c>
       <c r="F74">
-        <v>0.07200440716694055</v>
+        <v>-0.06265849634827222</v>
       </c>
       <c r="G74">
-        <v>-0.02784562562825839</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05644967039418608</v>
+      </c>
+      <c r="H74">
+        <v>0.03219372780355458</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2361193646412041</v>
+        <v>0.2311291509307662</v>
       </c>
       <c r="C75">
-        <v>0.1495176009085277</v>
+        <v>-0.1011574891810589</v>
       </c>
       <c r="D75">
-        <v>-0.02482861618597651</v>
+        <v>0.1601816586319507</v>
       </c>
       <c r="E75">
-        <v>-0.05996586115753572</v>
+        <v>0.002580631695588498</v>
       </c>
       <c r="F75">
-        <v>0.1311758431043852</v>
+        <v>-0.149810481553033</v>
       </c>
       <c r="G75">
-        <v>-0.00602394279890844</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1237536281030022</v>
+      </c>
+      <c r="H75">
+        <v>0.1164252359154267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2860940348128642</v>
+        <v>0.2050511235694277</v>
       </c>
       <c r="C76">
-        <v>0.1420283168564705</v>
+        <v>-0.09471295733024171</v>
       </c>
       <c r="D76">
-        <v>-0.09594350153451209</v>
+        <v>0.1551096429257043</v>
       </c>
       <c r="E76">
-        <v>-0.08070994452098527</v>
+        <v>-0.04853462036793229</v>
       </c>
       <c r="F76">
-        <v>0.1697698570135011</v>
+        <v>-0.1467226991477504</v>
       </c>
       <c r="G76">
-        <v>0.01100059968700008</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1199592527617277</v>
+      </c>
+      <c r="H76">
+        <v>0.1232790158792724</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1395838950228797</v>
+        <v>0.06933981804163275</v>
       </c>
       <c r="C77">
-        <v>-0.03296455462803024</v>
+        <v>-0.007363779580241087</v>
       </c>
       <c r="D77">
-        <v>0.08407157464314971</v>
+        <v>0.06204265563771088</v>
       </c>
       <c r="E77">
-        <v>-0.06355524394752637</v>
+        <v>0.01629854018723299</v>
       </c>
       <c r="F77">
-        <v>-0.1783920112518579</v>
+        <v>0.0359492251239943</v>
       </c>
       <c r="G77">
-        <v>0.157592462465665</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1014179024449179</v>
+      </c>
+      <c r="H77">
+        <v>-0.001838407568223229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06326256969050473</v>
+        <v>0.03927753082526439</v>
       </c>
       <c r="C78">
-        <v>0.02193134315936484</v>
+        <v>-0.009703368313767783</v>
       </c>
       <c r="D78">
-        <v>0.0339030634700923</v>
+        <v>0.04859553712660489</v>
       </c>
       <c r="E78">
-        <v>-0.09510891314720267</v>
+        <v>-0.008078795220495739</v>
       </c>
       <c r="F78">
-        <v>-0.06050529299408391</v>
+        <v>-0.02021010978873342</v>
       </c>
       <c r="G78">
-        <v>0.03922102224305915</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.06026348813892405</v>
+      </c>
+      <c r="H78">
+        <v>-0.06781521495783617</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1328660472913021</v>
+        <v>0.139884458741372</v>
       </c>
       <c r="C80">
-        <v>-0.5702323954938334</v>
+        <v>-0.03610291284505831</v>
       </c>
       <c r="D80">
-        <v>-0.5836105340319664</v>
+        <v>0.03998472759854078</v>
       </c>
       <c r="E80">
-        <v>-0.5216035877522561</v>
+        <v>-0.938314971744444</v>
       </c>
       <c r="F80">
-        <v>-0.06837280324375289</v>
+        <v>0.2450099061863142</v>
       </c>
       <c r="G80">
-        <v>-0.09748168288709182</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1227099031454391</v>
+      </c>
+      <c r="H80">
+        <v>-0.008719721131303025</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1758302852335139</v>
+        <v>0.1500028138634354</v>
       </c>
       <c r="C81">
-        <v>0.101905523979696</v>
+        <v>-0.06488145818116348</v>
       </c>
       <c r="D81">
-        <v>-0.04500423001197552</v>
+        <v>0.09995094101354522</v>
       </c>
       <c r="E81">
-        <v>-0.04334538455978094</v>
+        <v>-0.01747042343859052</v>
       </c>
       <c r="F81">
-        <v>0.1336494592999608</v>
+        <v>-0.09071139235249466</v>
       </c>
       <c r="G81">
-        <v>-0.02190547044453166</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.07973654320057021</v>
+      </c>
+      <c r="H81">
+        <v>0.07994579334881373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05077378629882818</v>
+        <v>0.03352612069451749</v>
       </c>
       <c r="C83">
-        <v>-0.003404862102618872</v>
+        <v>-0.005669241301336468</v>
       </c>
       <c r="D83">
-        <v>0.03674087051533938</v>
+        <v>0.02046049408491065</v>
       </c>
       <c r="E83">
-        <v>-0.01183246587708348</v>
+        <v>0.005179693806392581</v>
       </c>
       <c r="F83">
-        <v>-0.05767876166253911</v>
+        <v>-0.001817701023280419</v>
       </c>
       <c r="G83">
-        <v>0.03534103036088838</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04238112726752009</v>
+      </c>
+      <c r="H83">
+        <v>-0.04168160959789565</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2553834250741812</v>
+        <v>0.218336921064094</v>
       </c>
       <c r="C85">
-        <v>0.1294775583826186</v>
+        <v>-0.08424727468951036</v>
       </c>
       <c r="D85">
-        <v>-0.04344835467050682</v>
+        <v>0.1622475967389201</v>
       </c>
       <c r="E85">
-        <v>-0.06671663730062029</v>
+        <v>-0.003860481793836121</v>
       </c>
       <c r="F85">
-        <v>0.1327945104804781</v>
+        <v>-0.13529262599703</v>
       </c>
       <c r="G85">
-        <v>0.04382752637987627</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1357706655980644</v>
+      </c>
+      <c r="H85">
+        <v>0.08964119465290225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.005351534642683856</v>
+        <v>0.02146811421074367</v>
       </c>
       <c r="C86">
-        <v>-0.004468780268561528</v>
+        <v>0.0007977351505518916</v>
       </c>
       <c r="D86">
-        <v>0.02069988413098851</v>
+        <v>0.005185911618285605</v>
       </c>
       <c r="E86">
-        <v>-0.05484669850270248</v>
+        <v>0.00907907877609645</v>
       </c>
       <c r="F86">
-        <v>-0.06234094878124347</v>
+        <v>0.01952947506815488</v>
       </c>
       <c r="G86">
-        <v>0.008261384862021746</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.0628435494470409</v>
+      </c>
+      <c r="H86">
+        <v>-0.0760881577474541</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03701885795349485</v>
+        <v>0.02813958871659883</v>
       </c>
       <c r="C87">
-        <v>-0.00645226313717154</v>
+        <v>-0.002094433031687773</v>
       </c>
       <c r="D87">
-        <v>0.003137832416782406</v>
+        <v>0.03111846928301452</v>
       </c>
       <c r="E87">
-        <v>-0.04160583862052806</v>
+        <v>-0.008705793918363704</v>
       </c>
       <c r="F87">
-        <v>-0.1038471263686937</v>
+        <v>-0.004815027193596569</v>
       </c>
       <c r="G87">
-        <v>0.04605171938690856</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.07645376245945813</v>
+      </c>
+      <c r="H87">
+        <v>-0.07384235131107136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01171001463023856</v>
+        <v>0.03419541068918104</v>
       </c>
       <c r="C88">
-        <v>0.00377659505148515</v>
+        <v>0.01232613783768849</v>
       </c>
       <c r="D88">
-        <v>-0.01869963935153719</v>
+        <v>0.007250658458951642</v>
       </c>
       <c r="E88">
-        <v>0.00313574814839208</v>
+        <v>-0.009051201096170939</v>
       </c>
       <c r="F88">
-        <v>-0.007250217614757568</v>
+        <v>-0.009019639826735603</v>
       </c>
       <c r="G88">
-        <v>0.04940846951349149</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.0007479614483337906</v>
+      </c>
+      <c r="H88">
+        <v>-0.01275634811002575</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08547452951870357</v>
+        <v>0.2461644864293104</v>
       </c>
       <c r="C89">
-        <v>-0.04716985718127775</v>
+        <v>-0.03552299642921575</v>
       </c>
       <c r="D89">
-        <v>-0.1630323587644281</v>
+        <v>-0.350387338198307</v>
       </c>
       <c r="E89">
-        <v>0.2615334325063773</v>
+        <v>0.04463465183664892</v>
       </c>
       <c r="F89">
-        <v>-0.1228938186848939</v>
+        <v>0.06648265907854375</v>
       </c>
       <c r="G89">
-        <v>-0.001037650351593989</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.02939147167376375</v>
+      </c>
+      <c r="H89">
+        <v>0.01465714144867847</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07553674689276274</v>
+        <v>0.1984710416012364</v>
       </c>
       <c r="C90">
-        <v>-0.07150147617788639</v>
+        <v>-0.02916028243324687</v>
       </c>
       <c r="D90">
-        <v>-0.2138285969671738</v>
+        <v>-0.3073928201856513</v>
       </c>
       <c r="E90">
-        <v>0.2615327515750578</v>
+        <v>0.03354793318722603</v>
       </c>
       <c r="F90">
-        <v>-0.07604332036904604</v>
+        <v>0.08036231283602324</v>
       </c>
       <c r="G90">
-        <v>-0.00382998621703701</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.03651749674052537</v>
+      </c>
+      <c r="H90">
+        <v>0.06693635048374244</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3173051724979031</v>
+        <v>0.2370233640557406</v>
       </c>
       <c r="C91">
-        <v>0.1447071334170738</v>
+        <v>-0.1017683803059576</v>
       </c>
       <c r="D91">
-        <v>-0.03863994350099343</v>
+        <v>0.1514529173996899</v>
       </c>
       <c r="E91">
-        <v>-0.04128347295956298</v>
+        <v>-0.002586137060268061</v>
       </c>
       <c r="F91">
-        <v>0.2402356051239411</v>
+        <v>-0.1425931163753962</v>
       </c>
       <c r="G91">
-        <v>-0.03433981194477806</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1460484587791633</v>
+      </c>
+      <c r="H91">
+        <v>0.1645455358047136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1633050825255697</v>
+        <v>0.242825756323532</v>
       </c>
       <c r="C92">
-        <v>-0.02347704793334383</v>
+        <v>-0.09055733289290066</v>
       </c>
       <c r="D92">
-        <v>-0.2918030240210833</v>
+        <v>-0.2366571907742261</v>
       </c>
       <c r="E92">
-        <v>0.3664213327557608</v>
+        <v>0.0202887593586132</v>
       </c>
       <c r="F92">
-        <v>0.05580945531090871</v>
+        <v>0.03540678265375111</v>
       </c>
       <c r="G92">
-        <v>0.5900559230715945</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.006238263437988291</v>
+      </c>
+      <c r="H92">
+        <v>0.1586087584719864</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.07886567191582107</v>
+        <v>0.2229201279051258</v>
       </c>
       <c r="C93">
-        <v>-0.0757611953195018</v>
+        <v>-0.04094651263185983</v>
       </c>
       <c r="D93">
-        <v>-0.2452705823375702</v>
+        <v>-0.3312551382821844</v>
       </c>
       <c r="E93">
-        <v>0.3874638747756367</v>
+        <v>0.05837229802087917</v>
       </c>
       <c r="F93">
-        <v>-0.0479087013235498</v>
+        <v>0.09085507505312712</v>
       </c>
       <c r="G93">
-        <v>-0.084372560047087</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03354991849965913</v>
+      </c>
+      <c r="H93">
+        <v>0.01555732812103547</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3081596382584615</v>
+        <v>0.2614452563505548</v>
       </c>
       <c r="C94">
-        <v>0.2132286177987629</v>
+        <v>-0.09264912439203553</v>
       </c>
       <c r="D94">
-        <v>-0.08556393247119005</v>
+        <v>0.1471077038556749</v>
       </c>
       <c r="E94">
-        <v>-0.05110705067421422</v>
+        <v>0.006205810842535357</v>
       </c>
       <c r="F94">
-        <v>0.2052701012772262</v>
+        <v>-0.1901647196749764</v>
       </c>
       <c r="G94">
-        <v>-0.07855323027806854</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1352086986389533</v>
+      </c>
+      <c r="H94">
+        <v>0.1822070415326912</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06790451234043846</v>
+        <v>0.0528949524743647</v>
       </c>
       <c r="C95">
-        <v>0.02484248651408352</v>
+        <v>-0.02786351690580722</v>
       </c>
       <c r="D95">
-        <v>0.09675816633274949</v>
+        <v>0.08635071964438765</v>
       </c>
       <c r="E95">
-        <v>-0.06371223634172594</v>
+        <v>0.07982812066311847</v>
       </c>
       <c r="F95">
-        <v>-0.003837118101764612</v>
+        <v>-0.006437778872969415</v>
       </c>
       <c r="G95">
-        <v>0.1394510262925834</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.03429247012023872</v>
+      </c>
+      <c r="H95">
+        <v>-0.04204721167276528</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1815544118491718</v>
+        <v>0.1824856001617192</v>
       </c>
       <c r="C98">
-        <v>-0.007669691468352425</v>
+        <v>-0.06661693472657654</v>
       </c>
       <c r="D98">
-        <v>0.03281423876832449</v>
+        <v>0.03545833184885432</v>
       </c>
       <c r="E98">
-        <v>0.0854082695047064</v>
+        <v>0.04502924430938524</v>
       </c>
       <c r="F98">
-        <v>-0.1638407400261549</v>
+        <v>-8.960686290491207e-05</v>
       </c>
       <c r="G98">
-        <v>-0.3233701674843183</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07944240882604776</v>
+      </c>
+      <c r="H98">
+        <v>-0.3773820749211845</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.006939160177196777</v>
+        <v>0.01515732863940113</v>
       </c>
       <c r="C101">
-        <v>0.0240121694583401</v>
+        <v>0.0007888256136118636</v>
       </c>
       <c r="D101">
-        <v>0.02367589992604895</v>
+        <v>0.005989560759767158</v>
       </c>
       <c r="E101">
-        <v>-0.1053663329674196</v>
+        <v>-0.004989438738328011</v>
       </c>
       <c r="F101">
-        <v>-0.1419193488645091</v>
+        <v>-0.01598290955101853</v>
       </c>
       <c r="G101">
-        <v>0.187303120494626</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1090867282940421</v>
+      </c>
+      <c r="H101">
+        <v>0.03284675361931069</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.110998840948805</v>
+        <v>0.1061508590782351</v>
       </c>
       <c r="C102">
-        <v>0.06632672036244838</v>
+        <v>-0.03359594668717628</v>
       </c>
       <c r="D102">
-        <v>0.0009468803087387613</v>
+        <v>0.07902233275542156</v>
       </c>
       <c r="E102">
-        <v>-0.04776787223552285</v>
+        <v>-0.005251259180247351</v>
       </c>
       <c r="F102">
-        <v>0.1183428709285906</v>
+        <v>-0.06895076743369437</v>
       </c>
       <c r="G102">
-        <v>-0.00286126572816709</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.07672823380421236</v>
+      </c>
+      <c r="H102">
+        <v>0.06841037640797529</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02843711037187731</v>
+        <v>0.01960818234522891</v>
       </c>
       <c r="C103">
-        <v>0.0154631501356655</v>
+        <v>-0.00724091863019998</v>
       </c>
       <c r="D103">
-        <v>-0.00269253378704973</v>
+        <v>0.01706583995559833</v>
       </c>
       <c r="E103">
-        <v>-0.01432611136450822</v>
+        <v>-0.011268424286134</v>
       </c>
       <c r="F103">
-        <v>0.009957410110128536</v>
+        <v>-0.0138451525399874</v>
       </c>
       <c r="G103">
-        <v>0.0331438427383081</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0008306046292889582</v>
+      </c>
+      <c r="H103">
+        <v>0.008097317143500924</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.258133296942519</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9489918300596271</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.01261453591784821</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03547611438072149</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1455868746162584</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.01120954728087054</v>
+      </c>
+      <c r="H104">
+        <v>0.03854504623704847</v>
       </c>
     </row>
   </sheetData>
